--- a/DMSNewVSale_2025-10-16_22-06.xlsx
+++ b/DMSNewVSale_2025-10-16_22-06.xlsx
@@ -86,10 +86,16 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>87.00</t>
   </si>
   <si>
-    <t>28.7100</t>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>ALVERINSPASM 24 S.G.CAPS.</t>
@@ -128,9 +134,6 @@
     <t>ANTI-COX II 15MG 30 TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>111.00</t>
   </si>
   <si>
@@ -672,9 +675,6 @@
   </si>
   <si>
     <t>201.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
   </si>
   <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
@@ -1829,7 +1829,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1839,14 +1839,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1855,14 +1855,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1872,11 +1872,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>15</v>
@@ -1888,14 +1888,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>15</v>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1938,14 +1938,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1954,14 +1954,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1971,11 +1971,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>15</v>
@@ -1987,14 +1987,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2004,11 +2004,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>15</v>
@@ -2020,31 +2020,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2070,11 +2070,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>15</v>
@@ -2086,14 +2086,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2103,14 +2103,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -2136,11 +2136,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -2152,14 +2152,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2169,11 +2169,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>15</v>
@@ -2185,14 +2185,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2202,11 +2202,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>15</v>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -2235,11 +2235,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2268,11 +2268,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2284,14 +2284,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2301,11 +2301,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>15</v>
@@ -2317,14 +2317,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2334,14 +2334,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2350,14 +2350,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2367,14 +2367,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2383,14 +2383,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2400,11 +2400,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2416,14 +2416,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2433,11 +2433,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>15</v>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2466,11 +2466,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2482,14 +2482,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2499,11 +2499,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>15</v>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2532,14 +2532,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2565,11 +2565,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>15</v>
@@ -2581,14 +2581,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2598,11 +2598,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>15</v>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2631,11 +2631,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2647,14 +2647,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2664,11 +2664,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>15</v>
@@ -2680,14 +2680,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2697,11 +2697,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>15</v>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2730,11 +2730,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2746,14 +2746,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2763,14 +2763,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2779,14 +2779,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>15</v>
@@ -2812,14 +2812,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2829,11 +2829,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>15</v>
@@ -2845,28 +2845,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>15</v>
@@ -2878,7 +2878,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2895,11 +2895,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2928,11 +2928,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>15</v>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2961,11 +2961,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2977,14 +2977,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2998,7 +2998,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>20</v>
@@ -3010,14 +3010,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3027,11 +3027,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>20</v>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3060,11 +3060,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3093,14 +3093,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3109,14 +3109,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3126,14 +3126,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3142,14 +3142,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3163,7 +3163,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>15</v>
@@ -3175,14 +3175,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3192,11 +3192,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>15</v>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3225,11 +3225,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3258,11 +3258,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>20</v>
@@ -3274,14 +3274,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3291,11 +3291,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>15</v>
@@ -3307,14 +3307,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3324,11 +3324,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>15</v>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3357,11 +3357,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>20</v>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3390,11 +3390,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3423,14 +3423,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3439,14 +3439,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3456,11 +3456,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>20</v>
@@ -3472,14 +3472,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3489,11 +3489,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>15</v>
@@ -3505,14 +3505,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3522,11 +3522,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>15</v>
@@ -3538,14 +3538,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3555,11 +3555,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>15</v>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3588,11 +3588,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>20</v>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3621,11 +3621,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>15</v>
@@ -3637,14 +3637,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3654,11 +3654,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>15</v>
@@ -3670,14 +3670,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3687,11 +3687,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>15</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3720,11 +3720,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3736,14 +3736,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3753,14 +3753,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3782,15 +3782,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3802,14 +3802,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3819,11 +3819,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3852,11 +3852,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>15</v>
@@ -3868,14 +3868,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3885,11 +3885,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>15</v>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3918,14 +3918,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>221</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3974,13 +3974,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -4024,7 +4024,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4040,7 +4040,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4050,11 +4050,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>15</v>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -4149,7 +4149,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>15</v>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>20</v>
@@ -4281,11 +4281,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>20</v>
@@ -4347,11 +4347,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>15</v>
@@ -4370,7 +4370,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4380,11 +4380,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>15</v>
@@ -4403,7 +4403,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4436,7 +4436,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4446,14 +4446,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4512,7 +4512,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4568,7 +4568,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4607,7 +4607,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4634,7 +4634,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4667,7 +4667,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4700,7 +4700,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4799,7 +4799,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4832,7 +4832,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4842,11 +4842,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4865,7 +4865,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4945,10 +4945,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4981,7 +4981,7 @@
         <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5036,7 +5036,7 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
@@ -5063,7 +5063,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5080,7 +5080,7 @@
         <v>302</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>221</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5096,7 +5096,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5106,11 +5106,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>15</v>
@@ -5129,7 +5129,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5139,14 +5139,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
         <v>305</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>221</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5201,7 +5201,7 @@
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
@@ -5228,13 +5228,13 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
@@ -5245,7 +5245,7 @@
         <v>316</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5267,7 +5267,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
@@ -5278,7 +5278,7 @@
         <v>319</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>221</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5300,7 +5300,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
@@ -5311,7 +5311,7 @@
         <v>323</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5333,7 +5333,7 @@
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>20</v>
@@ -5366,7 +5366,7 @@
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
@@ -5399,7 +5399,7 @@
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
@@ -5407,10 +5407,10 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5432,7 +5432,7 @@
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
@@ -5465,7 +5465,7 @@
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
@@ -5498,7 +5498,7 @@
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
@@ -5506,7 +5506,7 @@
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>20</v>
@@ -5531,7 +5531,7 @@
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
@@ -5558,13 +5558,13 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>20</v>
@@ -5597,7 +5597,7 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
@@ -5605,10 +5605,10 @@
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5630,7 +5630,7 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>20</v>
@@ -5663,7 +5663,7 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5696,7 +5696,7 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
@@ -5729,11 +5729,11 @@
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
@@ -5756,17 +5756,17 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
@@ -5795,7 +5795,7 @@
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
@@ -5822,29 +5822,29 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
         <v>355</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132" ht="26.25" customHeight="1">
       <c r="N132" s="13">
-        <v>7465.7700000000004</v>
+        <v>7494.4799999999996</v>
       </c>
       <c r="O132" s="13"/>
       <c r="P132" s="13"/>
